--- a/Server/accounts.xlsx
+++ b/Server/accounts.xlsx
@@ -378,7 +378,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pcv94v</t>
+          <t>bits1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -395,7 +395,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>U6G9q4</t>
+          <t>bits2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -412,7 +412,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0BxHXG</t>
+          <t>bits3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -429,7 +429,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LquULR</t>
+          <t>bits4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -446,7 +446,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>diVqQh</t>
+          <t>bits5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -463,7 +463,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>q23esK</t>
+          <t>bits6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -480,7 +480,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>wZobmm</t>
+          <t>bits7</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>J2fOwB</t>
+          <t>bits8</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -514,7 +514,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CVrbos</t>
+          <t>bits9</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ULOiLw</t>
+          <t>bits10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>r1vEX6</t>
+          <t>bits1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>kRA5pG</t>
+          <t>bits2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">

--- a/Server/accounts.xlsx
+++ b/Server/accounts.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,34 +543,2584 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>judge00001</t>
+          <t>team00011</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>bits1</t>
+          <t>bits11</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>JUDGE</t>
+          <t>CLIENT</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>team00012</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>bits12</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>team00013</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>bits13</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>team00014</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>bits14</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>team00015</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>bits15</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>team00016</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>bits16</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>team00017</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>bits17</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>team00018</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>bits18</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>team00019</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>bits19</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>team00020</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>bits20</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>team00021</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>bits21</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>team00022</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>bits22</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>team00023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>bits23</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>team00024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>bits24</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>team00025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>bits25</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>team00026</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>bits26</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>team00027</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>bits27</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>team00028</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>bits28</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>team00029</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>bits29</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>team00030</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>bits30</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>team00031</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>bits31</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>team00032</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>bits32</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>team00033</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>bits33</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>team00034</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>bits34</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>team00035</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>bits35</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>team00036</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>bits36</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>team00037</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>bits37</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>team00038</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>bits38</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>team00039</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>bits39</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>team00040</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>bits40</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>team00041</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>bits41</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>team00042</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>bits42</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>team00043</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>bits43</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>team00044</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>bits44</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>team00045</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>bits45</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>team00046</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>bits46</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>team00047</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>bits47</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>team00048</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>bits48</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>team00049</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>bits49</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>team00050</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>bits50</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>judge00001</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>bits1</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>JUDGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
           <t>judge00002</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>bits2</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>JUDGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>team00051</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>bits51</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>team00052</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>bits52</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>team00053</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>bits53</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>team00054</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>bits54</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>team00055</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>bits55</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>team00056</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>bits56</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>team00057</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>bits57</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>team00058</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>bits58</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>team00059</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>bits59</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>team00060</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>bits60</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>team00061</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>bits61</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>team00062</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>bits62</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>team00063</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>bits63</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>team00064</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>bits64</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>team00065</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>bits65</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>team00066</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>bits66</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>team00067</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>bits67</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>team00068</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>bits68</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>team00069</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>bits69</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>team00070</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>bits70</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>team00071</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>bits71</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>team00072</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>bits72</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>team00073</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>bits73</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>team00074</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>bits74</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>team00075</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>bits75</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>team00076</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>bits76</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>team00077</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>bits77</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>team00078</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>bits78</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>team00079</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>bits79</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>team00080</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>bits80</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>team00081</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>bits81</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>team00082</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>bits82</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>team00083</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>bits83</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>team00084</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>bits84</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>team00085</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>bits85</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>team00086</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>bits86</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>team00087</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>bits87</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>team00088</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>bits88</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>team00089</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>bits89</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>team00090</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>bits90</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>team00091</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>bits91</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>team00092</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>bits92</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>team00093</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>bits93</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>team00094</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>bits94</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>team00095</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>bits95</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>team00096</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>bits96</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>team00097</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>bits97</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>team00098</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>bits98</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>team00099</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>bits99</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>team00100</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>bits100</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>team00101</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>bits101</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>team00102</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>bits102</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>team00103</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>bits103</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>team00104</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>bits104</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>team00105</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>bits105</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>team00106</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>bits106</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>team00107</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>bits107</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>team00108</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>bits108</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>team00109</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>bits109</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>team00110</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>bits110</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>team00111</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>bits111</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>team00112</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>bits112</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>team00113</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>bits113</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>team00114</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>bits114</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>team00115</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>bits115</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>team00116</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>bits116</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>team00117</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>bits117</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>team00118</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>bits118</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>team00119</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>bits119</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>team00120</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>bits120</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>team00121</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>bits121</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>team00122</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>bits122</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>team00123</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>bits123</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>team00124</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>bits124</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>team00125</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>bits125</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>team00126</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>bits126</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>team00127</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>bits127</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>team00128</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>bits128</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>team00129</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>bits129</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>team00130</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>bits130</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>team00131</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>bits131</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>team00132</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>bits132</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>team00133</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>bits133</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>team00134</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>bits134</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>team00135</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>bits135</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>team00136</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>bits136</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>team00137</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>bits137</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>team00138</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>bits138</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>team00139</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>bits139</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>team00140</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>bits140</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>team00141</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>bits141</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>team00142</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>bits142</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>team00143</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>bits143</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>team00144</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>bits144</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>team00145</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>bits145</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>team00146</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>bits146</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>team00147</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>bits147</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>team00148</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>bits148</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>team00149</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>bits149</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>team00150</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>bits150</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>team00151</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>GIOskA</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>team00152</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>GcK0VH</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>team00153</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>fe6rrM</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>team00154</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>w6dhUU</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>team00155</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>8GLVN5</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>team00156</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>NY4v9T</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>team00157</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>A5reV4</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>team00158</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Z9SlC2</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>team00159</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>FpkGa5</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>team00160</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>9Dujnv</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>CLIENT</t>
         </is>
       </c>
     </row>

--- a/Server/accounts.xlsx
+++ b/Server/accounts.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C163"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1223,46 +1223,46 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>judge00001</t>
+          <t>team00051</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>bits1</t>
+          <t>bits51</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>JUDGE</t>
+          <t>CLIENT</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>judge00002</t>
+          <t>team00052</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>bits2</t>
+          <t>bits52</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>JUDGE</t>
+          <t>CLIENT</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>team00051</t>
+          <t>team00053</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>bits51</t>
+          <t>bits53</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1274,12 +1274,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>team00052</t>
+          <t>team00054</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>bits52</t>
+          <t>bits54</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1291,12 +1291,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>team00053</t>
+          <t>team00055</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>bits53</t>
+          <t>bits55</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1308,12 +1308,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>team00054</t>
+          <t>team00056</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>bits54</t>
+          <t>bits56</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1325,12 +1325,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>team00055</t>
+          <t>team00057</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>bits55</t>
+          <t>bits57</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1342,12 +1342,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>team00056</t>
+          <t>team00058</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>bits56</t>
+          <t>bits58</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1359,12 +1359,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>team00057</t>
+          <t>team00059</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>bits57</t>
+          <t>bits59</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1376,12 +1376,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>team00058</t>
+          <t>team00060</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>bits58</t>
+          <t>bits60</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1393,12 +1393,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>team00059</t>
+          <t>team00061</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>bits59</t>
+          <t>bits61</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1410,12 +1410,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>team00060</t>
+          <t>team00062</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>bits60</t>
+          <t>bits62</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1427,12 +1427,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>team00061</t>
+          <t>team00063</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>bits61</t>
+          <t>bits63</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1444,12 +1444,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>team00062</t>
+          <t>team00064</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>bits62</t>
+          <t>bits64</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1461,12 +1461,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>team00063</t>
+          <t>team00065</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>bits63</t>
+          <t>bits65</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1478,12 +1478,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>team00064</t>
+          <t>team00066</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>bits64</t>
+          <t>bits66</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1495,12 +1495,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>team00065</t>
+          <t>team00067</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>bits65</t>
+          <t>bits67</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1512,12 +1512,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>team00066</t>
+          <t>team00068</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>bits66</t>
+          <t>bits68</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1529,12 +1529,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>team00067</t>
+          <t>team00069</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>bits67</t>
+          <t>bits69</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1546,12 +1546,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>team00068</t>
+          <t>team00070</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>bits68</t>
+          <t>bits70</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1563,12 +1563,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>team00069</t>
+          <t>team00071</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>bits69</t>
+          <t>bits71</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1580,12 +1580,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>team00070</t>
+          <t>team00072</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>bits70</t>
+          <t>bits72</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1597,12 +1597,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>team00071</t>
+          <t>team00073</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>bits71</t>
+          <t>bits73</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1614,12 +1614,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>team00072</t>
+          <t>team00074</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>bits72</t>
+          <t>bits74</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1631,12 +1631,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>team00073</t>
+          <t>team00075</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>bits73</t>
+          <t>bits75</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1648,12 +1648,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>team00074</t>
+          <t>team00076</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>bits74</t>
+          <t>bits76</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1665,12 +1665,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>team00075</t>
+          <t>team00077</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>bits75</t>
+          <t>bits77</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1682,12 +1682,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>team00076</t>
+          <t>team00078</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>bits76</t>
+          <t>bits78</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -1699,12 +1699,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>team00077</t>
+          <t>team00079</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>bits77</t>
+          <t>bits79</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1716,12 +1716,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>team00078</t>
+          <t>team00080</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>bits78</t>
+          <t>bits80</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1733,12 +1733,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>team00079</t>
+          <t>team00081</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>bits79</t>
+          <t>bits81</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1750,12 +1750,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>team00080</t>
+          <t>team00082</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>bits80</t>
+          <t>bits82</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1767,12 +1767,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>team00081</t>
+          <t>team00083</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>bits81</t>
+          <t>bits83</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1784,12 +1784,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>team00082</t>
+          <t>team00084</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>bits82</t>
+          <t>bits84</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1801,12 +1801,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>team00083</t>
+          <t>team00085</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>bits83</t>
+          <t>bits85</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -1818,12 +1818,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>team00084</t>
+          <t>team00086</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>bits84</t>
+          <t>bits86</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1835,12 +1835,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>team00085</t>
+          <t>team00087</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>bits85</t>
+          <t>bits87</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1852,12 +1852,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>team00086</t>
+          <t>team00088</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>bits86</t>
+          <t>bits88</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1869,12 +1869,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>team00087</t>
+          <t>team00089</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>bits87</t>
+          <t>bits89</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -1886,12 +1886,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>team00088</t>
+          <t>team00090</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>bits88</t>
+          <t>bits90</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1903,12 +1903,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>team00089</t>
+          <t>team00091</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>bits89</t>
+          <t>bits91</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -1920,12 +1920,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>team00090</t>
+          <t>team00092</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>bits90</t>
+          <t>bits92</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -1937,12 +1937,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>team00091</t>
+          <t>team00093</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>bits91</t>
+          <t>bits93</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -1954,12 +1954,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>team00092</t>
+          <t>team00094</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>bits92</t>
+          <t>bits94</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -1971,12 +1971,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>team00093</t>
+          <t>team00095</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>bits93</t>
+          <t>bits95</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -1988,12 +1988,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>team00094</t>
+          <t>team00096</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>bits94</t>
+          <t>bits96</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2005,12 +2005,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>team00095</t>
+          <t>team00097</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>bits95</t>
+          <t>bits97</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2022,12 +2022,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>team00096</t>
+          <t>team00098</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>bits96</t>
+          <t>bits98</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2039,12 +2039,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>team00097</t>
+          <t>team00099</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>bits97</t>
+          <t>bits99</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2056,12 +2056,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>team00098</t>
+          <t>team00100</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>bits98</t>
+          <t>bits100</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2073,1054 +2073,68 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>team00099</t>
+          <t>judge00001</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>bits99</t>
+          <t>HcMeva</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>CLIENT</t>
+          <t>JUDGE</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>team00100</t>
+          <t>judge00002</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>bits100</t>
+          <t>JYl4XP</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CLIENT</t>
+          <t>JUDGE</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>team00101</t>
+          <t>judge00003</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>bits101</t>
+          <t>tfl6Zu</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>CLIENT</t>
+          <t>JUDGE</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>team00102</t>
+          <t>judge00004</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>bits102</t>
+          <t>NHlljr</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>team00103</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>bits103</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>team00104</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>bits104</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>team00105</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>bits105</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>team00106</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>bits106</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>team00107</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>bits107</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>team00108</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>bits108</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>team00109</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>bits109</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>team00110</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>bits110</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>team00111</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>bits111</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>team00112</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>bits112</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>team00113</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>bits113</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>team00114</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>bits114</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>team00115</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>bits115</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>team00116</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>bits116</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>team00117</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>bits117</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>team00118</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>bits118</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>team00119</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>bits119</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>team00120</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>bits120</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>team00121</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>bits121</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>team00122</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>bits122</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>team00123</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>bits123</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>team00124</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>bits124</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>team00125</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>bits125</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>team00126</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>bits126</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>team00127</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>bits127</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>team00128</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>bits128</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>team00129</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>bits129</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>team00130</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>bits130</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>team00131</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>bits131</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>team00132</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>bits132</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>team00133</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>bits133</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>team00134</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>bits134</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>team00135</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>bits135</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>team00136</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>bits136</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>team00137</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>bits137</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>team00138</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>bits138</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>team00139</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>bits139</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>team00140</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>bits140</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>team00141</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>bits141</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>team00142</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>bits142</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>team00143</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>bits143</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>team00144</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>bits144</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>team00145</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>bits145</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>team00146</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>bits146</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>team00147</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>bits147</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>team00148</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>bits148</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>team00149</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>bits149</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>team00150</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>bits150</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>team00151</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>GIOskA</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>team00152</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>GcK0VH</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>team00153</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>fe6rrM</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>team00154</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>w6dhUU</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>team00155</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>8GLVN5</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>team00156</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>NY4v9T</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>team00157</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>A5reV4</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>team00158</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Z9SlC2</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>team00159</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>FpkGa5</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>team00160</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>9Dujnv</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>CLIENT</t>
+          <t>JUDGE</t>
         </is>
       </c>
     </row>
